--- a/SupplementalTables.xlsx
+++ b/SupplementalTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacharley/Desktop/sjd_sle_genes_intervals_mr_prs/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacharley/Desktop/sjd_sle_genes_intervals_mr_prs/Revision-2023-08-30/Supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECC993-7DFB-8D48-B1FB-C9B8C07368D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2A9BB-D01E-A447-8475-B7C0D2D0F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{9A823778-47CE-F94B-AC4B-B0870F2D31AB}"/>
+    <workbookView xWindow="36040" yWindow="640" windowWidth="34560" windowHeight="20060" xr2:uid="{9A823778-47CE-F94B-AC4B-B0870F2D31AB}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="606">
   <si>
     <t>INDEX</t>
   </si>
@@ -1347,18 +1347,12 @@
     <t>SjD putative causal gene NDEXBio Integrated Query results</t>
   </si>
   <si>
-    <t>https://www.ndexbio.org/#/network/6d41ca24-0263-11ee-aa50-005056ae23aa?accesskey=d2d8415a40ad78018deadf57276d9882f40ef1bfe647e033adcb467fb41ff4cc</t>
-  </si>
-  <si>
     <t>Figure 2 Network: SLE monogenic and polygenic Network Merged with SjD Network</t>
   </si>
   <si>
     <t>Figure 1 Network: SjD Network</t>
   </si>
   <si>
-    <t>https://www.ndexbio.org/#/network/535d1b98-0264-11ee-aa50-005056ae23aa?accesskey=442df23e0496ced0288dd9c8a50ec4801b1e97110ec4c27902282ab6bf5b0a09</t>
-  </si>
-  <si>
     <t>Overlapping SLE Variant</t>
   </si>
   <si>
@@ -2137,6 +2131,15 @@
   </si>
   <si>
     <t>FinnGen M13_Sjogrens Table and Manhattan Plot</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://www.ndexbio.org/viewer/networks/99b77fa6-478b-11ee-aa50-005056ae23aa</t>
+  </si>
+  <si>
+    <t>https://www.ndexbio.org/viewer/networks/ad1450f8-478b-11ee-aa50-005056ae23aa</t>
   </si>
 </sst>
 </file>
@@ -2144,8 +2147,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.E+00"/>
-    <numFmt numFmtId="169" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2304,7 +2307,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2317,8 +2320,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2334,12 +2336,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -2676,9 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826F19BC-4C27-4C4B-B425-DA77CE263DD8}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2695,100 +2695,100 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2857,38 +2857,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCECDAC-69E3-9F4A-B6F3-F82BA06E40E6}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
         <v>481</v>
       </c>
-      <c r="C1" t="s">
-        <v>483</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -2899,19 +2897,19 @@
       <c r="D2" s="3">
         <v>-0.23111200000000001</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>2.0380300000000001E-8</v>
       </c>
       <c r="F2" s="3">
         <v>4.1205600000000002E-2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>227</v>
@@ -2922,19 +2920,19 @@
       <c r="D3" s="3">
         <v>-0.24686</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <v>1.6477799999999999E-15</v>
       </c>
       <c r="F3" s="3">
         <v>3.09918E-2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>214</v>
@@ -2945,19 +2943,19 @@
       <c r="D4" s="3">
         <v>0.58221599999999996</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>5.0269000000000002E-48</v>
       </c>
       <c r="F4" s="3">
         <v>3.9986599999999997E-2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
@@ -2968,19 +2966,19 @@
       <c r="D5" s="3">
         <v>-0.32850400000000002</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>1.3658400000000001E-8</v>
       </c>
       <c r="F5" s="3">
         <v>5.7859500000000001E-2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>224</v>
@@ -2991,19 +2989,19 @@
       <c r="D6" s="3">
         <v>-0.67334499999999997</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>2.48416E-8</v>
       </c>
       <c r="F6" s="3">
         <v>0.120793</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
         <v>224</v>
@@ -3014,19 +3012,19 @@
       <c r="D7" s="3">
         <v>-0.17435300000000001</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>3.5042899999999999E-10</v>
       </c>
       <c r="F7" s="3">
         <v>2.7786999999999999E-2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
         <v>227</v>
@@ -3037,19 +3035,19 @@
       <c r="D8" s="3">
         <v>-0.31471100000000002</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>5.4274999999999998E-17</v>
       </c>
       <c r="F8" s="3">
         <v>3.7568299999999999E-2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
         <v>214</v>
@@ -3060,19 +3058,19 @@
       <c r="D9" s="3">
         <v>0.47000399999999998</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>2.2317200000000001E-8</v>
       </c>
       <c r="F9" s="3">
         <v>8.4034200000000003E-2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s">
         <v>224</v>
@@ -3083,19 +3081,19 @@
       <c r="D10" s="3">
         <v>0.92821900000000002</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>2.6607299999999998E-41</v>
       </c>
       <c r="F10" s="3">
         <v>6.8957299999999999E-2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>224</v>
@@ -3106,14 +3104,14 @@
       <c r="D11" s="3">
         <v>0.81093000000000004</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>1.81384E-59</v>
       </c>
       <c r="F11" s="3">
         <v>4.9864199999999997E-2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3129,19 +3127,19 @@
       <c r="D12" s="3">
         <v>-0.22314400000000001</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <v>2.60136E-14</v>
       </c>
       <c r="F12" s="3">
         <v>2.92964E-2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
@@ -3152,19 +3150,19 @@
       <c r="D13" s="3">
         <v>0.26136500000000001</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <v>7.6200900000000003E-9</v>
       </c>
       <c r="F13" s="3">
         <v>4.5245E-2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B14" t="s">
         <v>224</v>
@@ -3175,19 +3173,19 @@
       <c r="D14" s="3">
         <v>0.18633</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>8.6029999999999993E-9</v>
       </c>
       <c r="F14" s="3">
         <v>3.2370299999999998E-2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>213</v>
@@ -3198,19 +3196,19 @@
       <c r="D15" s="3">
         <v>-0.61618600000000001</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <v>4.0805599999999998E-9</v>
       </c>
       <c r="F15" s="3">
         <v>0.104778</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
@@ -3221,19 +3219,19 @@
       <c r="D16" s="3">
         <v>0.58778699999999995</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>1.8607999999999999E-45</v>
       </c>
       <c r="F16" s="3">
         <v>4.1539E-2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>214</v>
@@ -3244,19 +3242,19 @@
       <c r="D17" s="3">
         <v>-0.23572199999999999</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>3.60994E-13</v>
       </c>
       <c r="F17" s="3">
         <v>3.24266E-2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B18" t="s">
         <v>227</v>
@@ -3267,19 +3265,19 @@
       <c r="D18" s="3">
         <v>0.18633</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>2.9322399999999998E-11</v>
       </c>
       <c r="F18" s="3">
         <v>2.8019800000000001E-2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
         <v>214</v>
@@ -3290,19 +3288,19 @@
       <c r="D19" s="3">
         <v>0.26236399999999999</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>2.8813800000000003E-14</v>
       </c>
       <c r="F19" s="3">
         <v>3.4505500000000001E-2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B20" t="s">
         <v>227</v>
@@ -3313,19 +3311,19 @@
       <c r="D20" s="3">
         <v>0.92821900000000002</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>2.9241500000000001E-102</v>
       </c>
       <c r="F20" s="3">
         <v>4.3231899999999997E-2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>224</v>
@@ -3336,19 +3334,19 @@
       <c r="D21" s="3">
         <v>-0.559616</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>9.7319500000000001E-66</v>
       </c>
       <c r="F21" s="3">
         <v>3.2679100000000003E-2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
         <v>224</v>
@@ -3359,19 +3357,19 @@
       <c r="D22" s="3">
         <v>0.37843599999999999</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>3.7104800000000001E-10</v>
       </c>
       <c r="F22" s="3">
         <v>6.0397699999999999E-2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B23" t="s">
         <v>224</v>
@@ -3382,19 +3380,19 @@
       <c r="D23" s="3">
         <v>0.22314400000000001</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>5.0664099999999998E-11</v>
       </c>
       <c r="F23" s="3">
         <v>3.3969300000000001E-2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B24" t="s">
         <v>227</v>
@@ -3405,19 +3403,19 @@
       <c r="D24" s="3">
         <v>-0.22314400000000001</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>2.9682500000000003E-11</v>
       </c>
       <c r="F24" s="3">
         <v>3.3564700000000003E-2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
@@ -3428,19 +3426,19 @@
       <c r="D25" s="3">
         <v>0.65751999999999999</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>3.3767599999999999E-18</v>
       </c>
       <c r="F25" s="3">
         <v>7.5594099999999997E-2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
         <v>227</v>
@@ -3451,19 +3449,19 @@
       <c r="D26" s="3">
         <v>-0.162519</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>3.5067900000000001E-8</v>
       </c>
       <c r="F26" s="3">
         <v>2.9473599999999999E-2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B27" t="s">
         <v>214</v>
@@ -3474,19 +3472,19 @@
       <c r="D27" s="3">
         <v>0.198851</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>6.6404900000000001E-12</v>
       </c>
       <c r="F27" s="3">
         <v>2.8965100000000001E-2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
         <v>214</v>
@@ -3497,19 +3495,19 @@
       <c r="D28" s="3">
         <v>0.33647199999999999</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <v>4.5456899999999998E-13</v>
       </c>
       <c r="F28" s="3">
         <v>4.6485400000000003E-2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
         <v>213</v>
@@ -3520,19 +3518,19 @@
       <c r="D29" s="3">
         <v>0.27763199999999999</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <v>2.1897799999999998E-18</v>
       </c>
       <c r="F29" s="3">
         <v>3.1739999999999997E-2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B30" t="s">
         <v>214</v>
@@ -3543,19 +3541,19 @@
       <c r="D30" s="3">
         <v>-0.18633</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <v>8.6039900000000001E-11</v>
       </c>
       <c r="F30" s="3">
         <v>2.8711799999999999E-2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B31" t="s">
         <v>214</v>
@@ -3566,14 +3564,14 @@
       <c r="D31" s="3">
         <v>-0.31471100000000002</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <v>4.3962300000000003E-8</v>
       </c>
       <c r="F31" s="3">
         <v>5.7490300000000001E-2</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3589,19 +3587,19 @@
       <c r="D32" s="3">
         <v>-0.207014</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <v>3.1081400000000001E-12</v>
       </c>
       <c r="F32" s="3">
         <v>2.96891E-2</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B33" t="s">
         <v>224</v>
@@ -3612,14 +3610,14 @@
       <c r="D33" s="3">
         <v>0.18232200000000001</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>4.18572E-8</v>
       </c>
       <c r="F33" s="3">
         <v>3.3253199999999997E-2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -3637,183 +3635,183 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="B3" s="31">
+        <v>32</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D3" s="31">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E3" s="32">
+        <v>2.6740000000000003E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B4" s="31">
+        <v>32</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="D4" s="31">
+        <v>5.0259999999999999E-2</v>
+      </c>
+      <c r="E4" s="32">
+        <v>2.4150000000000001E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B5" s="31">
         <v>32</v>
       </c>
-      <c r="C3" s="32">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D3" s="32">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E3" s="33">
-        <v>2.6740000000000003E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="C5" s="31">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="D5" s="31">
+        <v>4.6019999999999998E-2</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.5880000000000001E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B6" s="31">
         <v>32</v>
       </c>
-      <c r="C4" s="32">
-        <v>0.28039999999999998</v>
-      </c>
-      <c r="D4" s="32">
-        <v>5.0259999999999999E-2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2.4150000000000001E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="C6" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="D6" s="31">
+        <v>9.529E-2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>3.4190000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32">
-        <v>32</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.31019999999999998</v>
-      </c>
-      <c r="D5" s="32">
-        <v>4.6019999999999998E-2</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1.5880000000000001E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="32">
-        <v>32</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0.30209999999999998</v>
-      </c>
-      <c r="D6" s="32">
-        <v>9.529E-2</v>
-      </c>
-      <c r="E6" s="32">
-        <v>3.4190000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="31">
+        <v>58.19</v>
+      </c>
+      <c r="C9" s="31">
+        <v>30</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1.5150000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="31">
+        <v>79.36</v>
+      </c>
+      <c r="C10" s="31">
+        <v>31</v>
+      </c>
+      <c r="D10" s="31">
+        <v>4.0810000000000004E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B9" s="32">
-        <v>58.19</v>
-      </c>
-      <c r="C9" s="32">
-        <v>30</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1.5150000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="32">
-        <v>79.36</v>
-      </c>
-      <c r="C10" s="32">
-        <v>31</v>
-      </c>
-      <c r="D10" s="32">
-        <v>4.0810000000000004E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>505</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>2.48E-3</v>
       </c>
     </row>
@@ -3826,191 +3824,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6818EDD-5E11-1147-84A5-B71147587AEA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="B3" s="31">
+        <v>4</v>
+      </c>
+      <c r="C3" s="31">
+        <v>-0.45529999999999998</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.65959999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B4" s="31">
+        <v>4</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="D4" s="31">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E4" s="32">
+        <v>2.4940000000000001E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C3" s="32">
-        <v>-0.45529999999999998</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.65959999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="C5" s="31">
+        <v>0.55330000000000001</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3.6250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C4" s="32">
-        <v>0.38240000000000002</v>
-      </c>
-      <c r="D4" s="32">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2.4940000000000001E-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="C6" s="31">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.4179999999999999E-2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>7.2639999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32">
-        <v>4</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.55330000000000001</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="E5" s="32">
-        <v>3.6250000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="32">
-        <v>4</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0.35439999999999999</v>
-      </c>
-      <c r="D6" s="32">
-        <v>5.4179999999999999E-2</v>
-      </c>
-      <c r="E6" s="32">
-        <v>7.2639999999999996E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="31">
+        <v>55.5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8.8770000000000004E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="31">
+        <v>92.72</v>
+      </c>
+      <c r="C10" s="31">
+        <v>3</v>
+      </c>
+      <c r="D10" s="32">
+        <v>5.6919999999999997E-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B9" s="32">
-        <v>55.5</v>
-      </c>
-      <c r="C9" s="32">
-        <v>2</v>
-      </c>
-      <c r="D9" s="33">
-        <v>8.8770000000000004E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="32">
-        <v>92.72</v>
-      </c>
-      <c r="C10" s="32">
-        <v>3</v>
-      </c>
-      <c r="D10" s="33">
-        <v>5.6919999999999997E-20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>505</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.36599999999999999</v>
       </c>
     </row>
@@ -4023,191 +4019,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAAD8A-44BC-094D-991F-CA9A6629E515}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="B3" s="31">
+        <v>30</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.9730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B4" s="31">
+        <v>30</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="D4" s="31">
+        <v>5.7970000000000001E-2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>5.63E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B5" s="31">
         <v>30</v>
       </c>
-      <c r="C3" s="32">
-        <v>0.42080000000000001</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1.9730000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="C5" s="31">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="D5" s="31">
+        <v>6.2359999999999999E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3.518E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B6" s="31">
         <v>30</v>
       </c>
-      <c r="C4" s="32">
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="D4" s="32">
-        <v>5.7970000000000001E-2</v>
-      </c>
-      <c r="E4" s="32">
-        <v>5.63E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="C6" s="31">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>7.7679999999999999E-2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>6.1729999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32">
-        <v>30</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.28920000000000001</v>
-      </c>
-      <c r="D5" s="32">
-        <v>6.2359999999999999E-2</v>
-      </c>
-      <c r="E5" s="32">
-        <v>3.518E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="32">
-        <v>30</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0.22939999999999999</v>
-      </c>
-      <c r="D6" s="32">
-        <v>7.7679999999999999E-2</v>
-      </c>
-      <c r="E6" s="32">
-        <v>6.1729999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="31">
+        <v>93.17</v>
+      </c>
+      <c r="C9" s="31">
+        <v>28</v>
+      </c>
+      <c r="D9" s="32">
+        <v>6.2920000000000002E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="31">
+        <v>95.47</v>
+      </c>
+      <c r="C10" s="31">
+        <v>29</v>
+      </c>
+      <c r="D10" s="32">
+        <v>5.1190000000000002E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B9" s="32">
-        <v>93.17</v>
-      </c>
-      <c r="C9" s="32">
-        <v>28</v>
-      </c>
-      <c r="D9" s="33">
-        <v>6.2920000000000002E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="32">
-        <v>95.47</v>
-      </c>
-      <c r="C10" s="32">
-        <v>29</v>
-      </c>
-      <c r="D10" s="33">
-        <v>5.1190000000000002E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>505</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.41299999999999998</v>
       </c>
     </row>
@@ -4220,48 +4214,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729DFB2-B16A-2B44-8C28-E23239994C63}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
         <v>481</v>
       </c>
-      <c r="L1" t="s">
-        <v>483</v>
-      </c>
       <c r="M1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4269,22 +4261,22 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H2">
         <v>0.39297945205479501</v>
@@ -4310,22 +4302,22 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H3">
         <v>0.166097669585869</v>
@@ -4351,22 +4343,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H4">
         <v>1.6927899686520399E-2</v>
@@ -4392,22 +4384,22 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H5">
         <v>0.36123200535654498</v>
@@ -4433,22 +4425,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H6">
         <v>0.35126745990688102</v>
@@ -4474,22 +4466,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H7">
         <v>0.172284644194757</v>
@@ -4515,22 +4507,22 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H8">
         <v>0.70748116254036597</v>
@@ -4556,22 +4548,22 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H9">
         <v>-6.3700707785642102E-2</v>
@@ -4598,22 +4590,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H10">
         <v>0.28672387682988398</v>
@@ -4640,22 +4632,22 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H11">
         <v>0.10388300554715101</v>
@@ -4681,16 +4673,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -4722,22 +4714,22 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H13">
         <v>3.9832285115303998E-2</v>
@@ -4763,22 +4755,22 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H14">
         <v>0.197487239890067</v>
@@ -4804,22 +4796,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H15">
         <v>0.24266144814089999</v>
@@ -4845,22 +4837,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H16">
         <v>0.49876298861949497</v>
@@ -4887,22 +4879,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H17">
         <v>0.204031465093412</v>
@@ -4928,22 +4920,22 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H18">
         <v>0.33899721448468001</v>
@@ -4969,22 +4961,22 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H19">
         <v>0.52857829010566804</v>
@@ -5010,22 +5002,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F20" t="s">
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H20">
         <v>-0.15588547189819699</v>
@@ -5051,22 +5043,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H21">
         <v>0.28531701890990002</v>
@@ -5092,22 +5084,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H22">
         <v>1.20637119113573</v>
@@ -5134,22 +5126,22 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H23">
         <v>0.42768930776730602</v>
@@ -5175,22 +5167,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H24">
         <v>-1.2376654632972299</v>
@@ -5216,22 +5208,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H25">
         <v>-0.21154898741105599</v>
@@ -5257,22 +5249,22 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H26">
         <v>0.857493104505057</v>
@@ -5298,22 +5290,22 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H27">
         <v>-1.6372039283651101</v>
@@ -5339,22 +5331,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H28">
         <v>-0.59405528996050705</v>
@@ -5380,16 +5372,16 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D29" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
@@ -5421,22 +5413,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H30">
         <v>2.3679638637943001</v>
@@ -5462,22 +5454,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H31">
         <v>-2.6731618602234302</v>
@@ -5503,22 +5495,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F32" t="s">
         <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H32">
         <v>0.28923917217969097</v>
@@ -5544,22 +5536,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H33">
         <v>0.420828080180639</v>
@@ -5665,10 +5657,10 @@
         <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -5795,7 +5787,7 @@
       <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="5">
         <v>1E-13</v>
       </c>
       <c r="V3" s="5" t="s">
@@ -5809,7 +5801,7 @@
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2.0000000000000001E-17</v>
       </c>
       <c r="C4" s="5"/>
@@ -5874,7 +5866,7 @@
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1E-10</v>
       </c>
       <c r="C5" s="5"/>
@@ -5939,7 +5931,7 @@
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2.9999999999999997E-8</v>
       </c>
       <c r="C6" s="5"/>
@@ -6059,7 +6051,7 @@
       <c r="T7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="5">
         <v>9.9999999999999997E-29</v>
       </c>
       <c r="V7" s="5" t="s">
@@ -6070,10 +6062,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>6.0000000000000001E-28</v>
       </c>
       <c r="C8" s="5"/>
@@ -6136,7 +6128,7 @@
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>4.9999999999999997E-113</v>
       </c>
       <c r="C9" s="5"/>
@@ -6199,7 +6191,7 @@
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>8.0000000000000004E-114</v>
       </c>
       <c r="C10" s="5"/>
@@ -6264,7 +6256,7 @@
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>9.0000000000000002E-25</v>
       </c>
       <c r="C11" s="5"/>
@@ -6382,7 +6374,7 @@
       <c r="T12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="5">
         <v>6.0000000000000006E-39</v>
       </c>
       <c r="V12" s="5" t="s">
@@ -6396,7 +6388,7 @@
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="C13" s="5"/>
@@ -6516,7 +6508,7 @@
       <c r="T14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="5">
         <v>3.0000000000000001E-84</v>
       </c>
       <c r="V14" t="s">
@@ -6530,7 +6522,7 @@
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1E-53</v>
       </c>
       <c r="C15" s="5"/>
@@ -6575,7 +6567,7 @@
       <c r="R15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="10" t="s">
         <v>118</v>
       </c>
       <c r="T15" s="5" t="s">
@@ -6595,7 +6587,7 @@
       <c r="A16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2.9999999999999999E-19</v>
       </c>
       <c r="C16" s="5"/>
@@ -6660,7 +6652,7 @@
       <c r="A17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>2E-16</v>
       </c>
       <c r="C17" s="5"/>
@@ -6780,7 +6772,7 @@
       <c r="T18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="5">
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="V18" t="s">
@@ -6794,7 +6786,7 @@
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>5.0000000000000003E-10</v>
       </c>
       <c r="C19" s="5"/>
@@ -6859,7 +6851,7 @@
       <c r="A20" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1E-8</v>
       </c>
       <c r="C20" s="5"/>
@@ -7010,7 +7002,7 @@
       <c r="N22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="11" t="s">
         <v>158</v>
       </c>
       <c r="P22" s="5">
@@ -7097,7 +7089,7 @@
       <c r="T23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="5">
         <v>2.0000000000000001E-25</v>
       </c>
       <c r="V23" t="s">
@@ -7166,7 +7158,7 @@
       <c r="T24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="5">
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -7188,9 +7180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A7E12F-CCB0-5345-8819-623DB92DBB77}">
   <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7382,7 +7372,7 @@
       <c r="M3" t="s">
         <v>218</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>219</v>
       </c>
       <c r="O3" t="s">
@@ -7501,7 +7491,7 @@
       <c r="M4" t="s">
         <v>238</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>231</v>
       </c>
       <c r="O4" t="s">
@@ -7621,7 +7611,7 @@
       <c r="M5" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>136</v>
       </c>
       <c r="O5" t="s">
@@ -7973,7 +7963,7 @@
       <c r="M8" t="s">
         <v>275</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>165</v>
       </c>
       <c r="O8" t="s">
@@ -8092,7 +8082,7 @@
       <c r="M9" t="s">
         <v>218</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>174</v>
       </c>
       <c r="O9" t="s">
@@ -8211,7 +8201,7 @@
       <c r="M10" t="s">
         <v>294</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O10" t="s">
@@ -8318,7 +8308,7 @@
       <c r="M11" t="s">
         <v>305</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>306</v>
       </c>
       <c r="O11" t="s">
@@ -8438,7 +8428,7 @@
       <c r="M12" t="s">
         <v>319</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>103</v>
       </c>
       <c r="O12" t="s">
@@ -8524,11 +8514,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B4F9D1-67C2-7641-9BCB-16CAC84EBF95}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8536,100 +8524,103 @@
     <col min="2" max="2" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="11" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>604</v>
-      </c>
-      <c r="B11" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>603</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>602</v>
+      <c r="B12" s="10" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8632,10 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{5079794A-AC07-594C-BBE5-A816E041B1B3}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{ED8A703F-EA2D-7740-B849-8CCC00702C42}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{83A4CF0F-B792-9C43-B6F5-67F07D2054D0}"/>
-    <hyperlink ref="B10" r:id="rId8" location="/network/6d41ca24-0263-11ee-aa50-005056ae23aa?accesskey=d2d8415a40ad78018deadf57276d9882f40ef1bfe647e033adcb467fb41ff4cc" xr:uid="{A0F14129-050A-844F-8ADE-28344078F6B5}"/>
-    <hyperlink ref="B9" r:id="rId9" location="/network/535d1b98-0264-11ee-aa50-005056ae23aa?accesskey=442df23e0496ced0288dd9c8a50ec4801b1e97110ec4c27902282ab6bf5b0a09" xr:uid="{35C161FB-A5E6-9940-A463-A87E75BFB858}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{6E92B4FF-64B5-AB4A-ABD0-CCFBB864B556}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{AD5CFCCF-5CC2-DD44-B24F-7A4298E0F24B}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{6E92B4FF-64B5-AB4A-ABD0-CCFBB864B556}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{AD5CFCCF-5CC2-DD44-B24F-7A4298E0F24B}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{31A556BE-47C4-1743-B8C1-EB09D4F00702}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{FC56A894-5CAB-E141-B270-081D2EAF7559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8654,9 +8645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46436C2A-F92A-DD4B-B20B-000E9248DC29}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8666,183 +8655,183 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
         <v>191</v>
       </c>
       <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
         <v>350</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>351</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="14" t="s">
         <v>352</v>
-      </c>
-      <c r="F2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>356</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="F3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" t="s">
         <v>360</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>367</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>577</v>
+        <v>359</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="D7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
         <v>351</v>
       </c>
-      <c r="E7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>372</v>
+      <c r="G7" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="D8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8864,7 +8853,7 @@
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8873,1123 +8862,1123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>350</v>
+      <c r="A1" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="15">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="F3" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17">
+        <v>1.01E-32</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2.89</v>
+      </c>
+      <c r="L3" s="15">
+        <v>8.8668419999999998E-2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N3" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="O3" s="15">
+        <v>1.0612569999999999</v>
+      </c>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="18">
+        <v>5.1999999999999998E-113</v>
+      </c>
+      <c r="K4" s="16">
+        <v>3.52</v>
+      </c>
+      <c r="L4" s="15">
+        <v>7.799238E-2</v>
+      </c>
+      <c r="M4" s="20">
+        <v>3.02</v>
+      </c>
+      <c r="N4" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1.2584610000000001</v>
+      </c>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="18">
+        <v>7.7000000000000006E-114</v>
+      </c>
+      <c r="K5" s="16">
+        <v>3.53</v>
+      </c>
+      <c r="L5" s="15">
+        <v>7.7770510000000001E-2</v>
+      </c>
+      <c r="M5" s="20">
+        <v>3.03</v>
+      </c>
+      <c r="N5" s="20">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1.261298</v>
+      </c>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="21">
+        <v>4.5999999999999998E-112</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3.45</v>
+      </c>
+      <c r="L6" s="15">
+        <v>7.5952140000000001E-2</v>
+      </c>
+      <c r="M6" s="20">
+        <v>2.97</v>
+      </c>
+      <c r="N6" s="20">
+        <v>4</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1.2383740000000001</v>
+      </c>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="21">
+        <v>1.3000000000000001E-96</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L7" s="15">
+        <v>6.2333100000000002E-2</v>
+      </c>
+      <c r="M7" s="20">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N7" s="20">
+        <v>2.86</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.92821900000000002</v>
+      </c>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="21">
+        <v>1.4000000000000001E-85</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="15">
+        <v>6.2531240000000002E-2</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="O8" s="15">
+        <v>-0.89159999999999995</v>
+      </c>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="J9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="O2" s="16" t="s">
+      <c r="O9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="16">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.59</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.33</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="15">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18">
-        <v>1.01E-32</v>
-      </c>
-      <c r="K3" s="16">
-        <v>2.89</v>
-      </c>
-      <c r="L3" s="16">
-        <v>8.8668419999999998E-2</v>
-      </c>
-      <c r="M3" s="17">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="N3" s="17">
-        <v>3.44</v>
-      </c>
-      <c r="O3" s="16">
-        <v>1.0612569999999999</v>
-      </c>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="16">
-        <v>6</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="F10" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="21">
+        <v>2.7000000000000001E-19</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="L10" s="15">
+        <v>5.8108149999999997E-2</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1.29</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1.62</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.36464299999999999</v>
+      </c>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="16">
-        <v>0.27</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="21">
+        <v>9.8000000000000002E-17</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="L11" s="15">
+        <v>5.814594E-2</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.33647199999999999</v>
+      </c>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="15">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="21">
+        <v>2.4E-16</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="L12" s="15">
+        <v>7.7112470000000002E-2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1.36</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1.84</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.45742500000000003</v>
+      </c>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="15">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="21">
+        <v>2.7E-16</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="L13" s="15">
+        <v>7.7604939999999997E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.45107599999999998</v>
+      </c>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="15">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="19">
-        <v>5.1999999999999998E-113</v>
-      </c>
-      <c r="K4" s="17">
-        <v>3.52</v>
-      </c>
-      <c r="L4" s="16">
-        <v>7.799238E-2</v>
-      </c>
-      <c r="M4" s="21">
-        <v>3.02</v>
-      </c>
-      <c r="N4" s="21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O4" s="16">
-        <v>1.2584610000000001</v>
-      </c>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="16">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="21">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="L14" s="15">
+        <v>5.9012530000000001E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0.92</v>
+      </c>
+      <c r="O14" s="15">
+        <v>-0.19844999999999999</v>
+      </c>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="21">
+        <v>6.8000000000000001E-15</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="L15" s="15">
+        <v>6.4110819999999999E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1.26</v>
+      </c>
+      <c r="N15" s="15">
+        <v>1.62</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.35767399999999999</v>
+      </c>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="16">
+      <c r="I16" s="15"/>
+      <c r="J16" s="21">
+        <v>9.5000000000000007E-9</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="L16" s="15">
+        <v>6.7267770000000005E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.27763199999999999</v>
+      </c>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="21">
+        <v>1.2E-10</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5.867766E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.26236399999999999</v>
+      </c>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="21">
+        <v>9.8999999999999993E-9</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1.27</v>
+      </c>
+      <c r="L18" s="15">
+        <v>5.8275319999999999E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.23901700000000001</v>
+      </c>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="15">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="G19" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="21">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="L19" s="15">
+        <v>6.0418979999999997E-2</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1.47</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.26236399999999999</v>
+      </c>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="15">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="21">
+        <v>6.9E-10</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="L20" s="15">
+        <v>5.867766E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.26236399999999999</v>
+      </c>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="15">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="21">
+        <v>8.0000000000000002E-8</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1.26</v>
+      </c>
+      <c r="L21" s="15">
+        <v>6.0542899999999997E-2</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N21" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.23111200000000001</v>
+      </c>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="21">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="L22" s="15">
+        <v>7.5373519999999999E-2</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="O22" s="15">
+        <v>-0.30110999999999999</v>
+      </c>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="15">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="21">
+        <v>6.8E-8</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="L23" s="15">
+        <v>7.4367559999999999E-2</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="O23" s="15">
+        <v>-0.28767999999999999</v>
+      </c>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="15">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="15">
         <v>0.12</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="G24" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="21">
+        <v>3.2999999999999998E-8</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="L24" s="15">
+        <v>9.0349949999999998E-2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.35767399999999999</v>
+      </c>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="19">
-        <v>7.7000000000000006E-114</v>
-      </c>
-      <c r="K5" s="17">
-        <v>3.53</v>
-      </c>
-      <c r="L5" s="16">
-        <v>7.7770510000000001E-2</v>
-      </c>
-      <c r="M5" s="21">
-        <v>3.03</v>
-      </c>
-      <c r="N5" s="21">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="O5" s="16">
-        <v>1.261298</v>
-      </c>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="16">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="22">
-        <v>4.5999999999999998E-112</v>
-      </c>
-      <c r="K6" s="16">
-        <v>3.45</v>
-      </c>
-      <c r="L6" s="16">
-        <v>7.5952140000000001E-2</v>
-      </c>
-      <c r="M6" s="21">
-        <v>2.97</v>
-      </c>
-      <c r="N6" s="21">
-        <v>4</v>
-      </c>
-      <c r="O6" s="16">
-        <v>1.2383740000000001</v>
-      </c>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="16">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="22">
-        <v>1.3000000000000001E-96</v>
-      </c>
-      <c r="K7" s="16">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="L7" s="16">
-        <v>6.2333100000000002E-2</v>
-      </c>
-      <c r="M7" s="21">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N7" s="21">
-        <v>2.86</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.92821900000000002</v>
-      </c>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="16">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.27</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.48</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="22">
-        <v>1.4000000000000001E-85</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="L8" s="16">
-        <v>6.2531240000000002E-2</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="O8" s="16">
-        <v>-0.89159999999999995</v>
-      </c>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="16">
-        <v>7</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="22">
-        <v>2.7000000000000001E-19</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1.44</v>
-      </c>
-      <c r="L10" s="16">
-        <v>5.8108149999999997E-2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>1.29</v>
-      </c>
-      <c r="N10" s="16">
-        <v>1.62</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.36464299999999999</v>
-      </c>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="16">
-        <v>7</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.53</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.44</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="22">
-        <v>9.8000000000000002E-17</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="L11" s="16">
-        <v>5.814594E-2</v>
-      </c>
-      <c r="M11" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="I25" s="15"/>
+      <c r="J25" s="21">
+        <v>5.3000000000000001E-7</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1.34</v>
+      </c>
+      <c r="L25" s="15">
+        <v>8.1644729999999999E-2</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N25" s="15">
         <v>1.57</v>
       </c>
-      <c r="O11" s="16">
-        <v>0.33647199999999999</v>
-      </c>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="22">
-        <v>2.4E-16</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1.58</v>
-      </c>
-      <c r="L12" s="16">
-        <v>7.7112470000000002E-2</v>
-      </c>
-      <c r="M12" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="N12" s="16">
-        <v>1.84</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0.45742500000000003</v>
-      </c>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="16">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="22">
-        <v>2.7E-16</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1.57</v>
-      </c>
-      <c r="L13" s="16">
-        <v>7.7604939999999997E-2</v>
-      </c>
-      <c r="M13" s="16">
-        <v>1.35</v>
-      </c>
-      <c r="N13" s="16">
-        <v>1.83</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0.45107599999999998</v>
-      </c>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="16">
-        <v>7</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.34</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="22">
-        <v>3.1999999999999999E-6</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0.82</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5.9012530000000001E-2</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0.73</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0.92</v>
-      </c>
-      <c r="O14" s="16">
-        <v>-0.19844999999999999</v>
-      </c>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="22">
-        <v>6.8000000000000001E-15</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1.43</v>
-      </c>
-      <c r="L15" s="16">
-        <v>6.4110819999999999E-2</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1.26</v>
-      </c>
-      <c r="N15" s="16">
-        <v>1.62</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0.35767399999999999</v>
-      </c>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="22">
-        <v>9.5000000000000007E-9</v>
-      </c>
-      <c r="K16" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="L16" s="16">
-        <v>6.7267770000000005E-2</v>
-      </c>
-      <c r="M16" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N16" s="16">
-        <v>1.51</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0.27763199999999999</v>
-      </c>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0.48</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="22">
-        <v>1.2E-10</v>
-      </c>
-      <c r="K17" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="L17" s="16">
-        <v>5.867766E-2</v>
-      </c>
-      <c r="M17" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1.46</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0.26236399999999999</v>
-      </c>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="C18" s="16">
-        <v>3</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.48</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="22">
-        <v>9.8999999999999993E-9</v>
-      </c>
-      <c r="K18" s="16">
-        <v>1.27</v>
-      </c>
-      <c r="L18" s="16">
-        <v>5.8275319999999999E-2</v>
-      </c>
-      <c r="M18" s="16">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N18" s="16">
-        <v>1.42</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0.23901700000000001</v>
-      </c>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C19" s="16">
-        <v>8</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="22">
-        <v>5.0000000000000003E-10</v>
-      </c>
-      <c r="K19" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="L19" s="16">
-        <v>6.0418979999999997E-2</v>
-      </c>
-      <c r="M19" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N19" s="16">
-        <v>1.47</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0.26236399999999999</v>
-      </c>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C20" s="16">
-        <v>8</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="22">
-        <v>6.9E-10</v>
-      </c>
-      <c r="K20" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="L20" s="16">
-        <v>5.867766E-2</v>
-      </c>
-      <c r="M20" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N20" s="16">
-        <v>1.46</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0.26236399999999999</v>
-      </c>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" s="16">
-        <v>8</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.32</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="22">
-        <v>8.0000000000000002E-8</v>
-      </c>
-      <c r="K21" s="16">
-        <v>1.26</v>
-      </c>
-      <c r="L21" s="16">
-        <v>6.0542899999999997E-2</v>
-      </c>
-      <c r="M21" s="16">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N21" s="16">
-        <v>1.42</v>
-      </c>
-      <c r="O21" s="16">
-        <v>0.23111200000000001</v>
-      </c>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C22" s="16">
-        <v>11</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="22">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="L22" s="16">
-        <v>7.5373519999999999E-2</v>
-      </c>
-      <c r="M22" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="N22" s="16">
-        <v>0.86</v>
-      </c>
-      <c r="O22" s="16">
-        <v>-0.30110999999999999</v>
-      </c>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="C23" s="16">
-        <v>11</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="22">
-        <v>6.8E-8</v>
-      </c>
-      <c r="K23" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="16">
-        <v>7.4367559999999999E-2</v>
-      </c>
-      <c r="M23" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="N23" s="16">
-        <v>0.87</v>
-      </c>
-      <c r="O23" s="16">
-        <v>-0.28767999999999999</v>
-      </c>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C24" s="16">
-        <v>5</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="22">
-        <v>3.2999999999999998E-8</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1.43</v>
-      </c>
-      <c r="L24" s="16">
-        <v>9.0349949999999998E-2</v>
-      </c>
-      <c r="M24" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1.71</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0.35767399999999999</v>
-      </c>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="C25" s="16">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="22">
-        <v>5.3000000000000001E-7</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1.34</v>
-      </c>
-      <c r="L25" s="16">
-        <v>8.1644729999999999E-2</v>
-      </c>
-      <c r="M25" s="16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N25" s="16">
-        <v>1.57</v>
-      </c>
-      <c r="O25" s="16">
+      <c r="O25" s="15">
         <v>0.29266999999999999</v>
       </c>
-      <c r="R25" s="16"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>355</v>
+      <c r="A27" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" t="s">
         <v>378</v>
       </c>
-      <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" t="s">
-        <v>380</v>
-      </c>
       <c r="E28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" t="s">
+        <v>419</v>
+      </c>
+      <c r="G28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" t="s">
         <v>420</v>
       </c>
-      <c r="F28" t="s">
-        <v>421</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>383</v>
-      </c>
-      <c r="H28" t="s">
-        <v>422</v>
-      </c>
-      <c r="I28" t="s">
-        <v>385</v>
       </c>
       <c r="J28" t="s">
         <v>194</v>
       </c>
       <c r="K28" t="s">
+        <v>384</v>
+      </c>
+      <c r="L28" t="s">
+        <v>385</v>
+      </c>
+      <c r="M28" t="s">
         <v>386</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>387</v>
       </c>
-      <c r="M28" t="s">
-        <v>388</v>
-      </c>
-      <c r="N28" t="s">
-        <v>389</v>
-      </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9998,7 +9987,7 @@
         <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -10042,7 +10031,7 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -10083,10 +10072,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -10127,10 +10116,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -10171,10 +10160,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -10214,54 +10203,54 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E36" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" t="s">
         <v>420</v>
       </c>
-      <c r="F36" t="s">
-        <v>432</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>383</v>
-      </c>
-      <c r="H36" t="s">
-        <v>422</v>
-      </c>
-      <c r="I36" t="s">
-        <v>385</v>
       </c>
       <c r="J36" t="s">
         <v>194</v>
       </c>
       <c r="K36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" t="s">
+        <v>385</v>
+      </c>
+      <c r="M36" t="s">
         <v>386</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>387</v>
       </c>
-      <c r="M36" t="s">
-        <v>388</v>
-      </c>
-      <c r="N36" t="s">
-        <v>389</v>
-      </c>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10281,7 +10270,7 @@
       <c r="E37" t="s">
         <v>214</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>0.41</v>
       </c>
       <c r="H37" t="s">
@@ -10290,16 +10279,16 @@
       <c r="J37" s="7">
         <v>5.5300000000000002E-14</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <v>1.24</v>
       </c>
       <c r="L37">
         <v>3.0772445864442565E-2</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>1.17</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="19">
         <v>1.32</v>
       </c>
       <c r="O37">
@@ -10322,7 +10311,7 @@
       <c r="E38" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="19">
         <v>0.42</v>
       </c>
       <c r="H38" t="s">
@@ -10331,16 +10320,16 @@
       <c r="J38" s="7">
         <v>2.4400000000000001E-12</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="19">
         <v>1.22</v>
       </c>
       <c r="L38">
         <v>2.9067413099290264E-2</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="19">
         <v>1.3</v>
       </c>
       <c r="O38">
@@ -10363,7 +10352,7 @@
       <c r="E39" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="19">
         <v>0.42</v>
       </c>
       <c r="H39" t="s">
@@ -10372,16 +10361,16 @@
       <c r="J39" s="7">
         <v>1.37E-12</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="19">
         <v>1.23</v>
       </c>
       <c r="L39">
         <v>2.9067413099290264E-2</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="19">
         <v>1.3</v>
       </c>
       <c r="O39">
@@ -10404,7 +10393,7 @@
       <c r="E40" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="19">
         <v>0.38</v>
       </c>
       <c r="H40" t="s">
@@ -10413,16 +10402,16 @@
       <c r="J40" s="7">
         <v>2.89E-12</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="19">
         <v>1.22</v>
       </c>
       <c r="L40">
         <v>2.9067413099290264E-2</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="19">
         <v>1.3</v>
       </c>
       <c r="O40">
@@ -10445,7 +10434,7 @@
       <c r="E41" t="s">
         <v>224</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="19">
         <v>0.25</v>
       </c>
       <c r="H41" t="s">
@@ -10454,16 +10443,16 @@
       <c r="J41" s="7">
         <v>5.4900000000000001E-4</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="19">
         <v>0.88</v>
       </c>
       <c r="L41">
         <v>3.4448031582638497E-2</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="19">
         <v>0.83</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="19">
         <v>0.95</v>
       </c>
       <c r="O41">
@@ -10486,7 +10475,7 @@
       <c r="E42" t="s">
         <v>213</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="19">
         <v>0.49</v>
       </c>
       <c r="H42" t="s">
@@ -10495,16 +10484,16 @@
       <c r="J42" s="7">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="19">
         <v>1.1100000000000001</v>
       </c>
       <c r="L42">
         <v>2.9776600588811552E-2</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="19">
         <v>1.05</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="19">
         <v>1.18</v>
       </c>
       <c r="O42">
@@ -10527,7 +10516,7 @@
       <c r="E43" t="s">
         <v>227</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="19">
         <v>0.47</v>
       </c>
       <c r="H43" t="s">
@@ -10536,16 +10525,16 @@
       <c r="J43" s="7">
         <v>2.6499999999999999E-8</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>0.84</v>
       </c>
       <c r="L43">
         <v>2.4027350780535979E-2</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>0.81</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="19">
         <v>0.89</v>
       </c>
       <c r="O43">
@@ -10568,7 +10557,7 @@
       <c r="E44" t="s">
         <v>224</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="19">
         <v>0.42</v>
       </c>
       <c r="H44" t="s">
@@ -10577,16 +10566,16 @@
       <c r="J44" s="7">
         <v>3.3299999999999999E-9</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>0.83</v>
       </c>
       <c r="L44">
         <v>2.7522694390608407E-2</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="19">
         <v>0.79</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="19">
         <v>0.88</v>
       </c>
       <c r="O44">
@@ -10609,7 +10598,7 @@
       <c r="E45" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="19">
         <v>0.47</v>
       </c>
       <c r="H45" t="s">
@@ -10618,16 +10607,16 @@
       <c r="J45" s="7">
         <v>2.36E-8</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>0.84</v>
       </c>
       <c r="L45">
         <v>2.7196360984249542E-2</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <v>0.8</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="19">
         <v>0.89</v>
       </c>
       <c r="O45">
@@ -10650,7 +10639,7 @@
       <c r="E46" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="19">
         <v>0.46</v>
       </c>
       <c r="H46" t="s">
@@ -10659,16 +10648,16 @@
       <c r="J46" s="7">
         <v>3.77E-8</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <v>1.17</v>
       </c>
       <c r="L46">
         <v>2.8252899054260875E-2</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="19">
         <v>1.24</v>
       </c>
       <c r="O46">
@@ -10691,7 +10680,7 @@
       <c r="E47" t="s">
         <v>227</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="19">
         <v>0.48</v>
       </c>
       <c r="H47" t="s">
@@ -10700,16 +10689,16 @@
       <c r="J47" s="7">
         <v>3.8700000000000001E-7</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>1.1599999999999999</v>
       </c>
       <c r="L47">
         <v>3.0825630903896353E-2</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="19">
         <v>1.23</v>
       </c>
       <c r="O47">
@@ -10732,7 +10721,7 @@
       <c r="E48" t="s">
         <v>227</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="19">
         <v>0.47</v>
       </c>
       <c r="H48" t="s">
@@ -10741,16 +10730,16 @@
       <c r="J48" s="7">
         <v>5.99E-8</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>1.17</v>
       </c>
       <c r="L48">
         <v>3.0561530564444019E-2</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="19">
         <v>1.24</v>
       </c>
       <c r="O48">
@@ -10773,7 +10762,7 @@
       <c r="E49" t="s">
         <v>224</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="19">
         <v>0.48</v>
       </c>
       <c r="H49" t="s">
@@ -10782,16 +10771,16 @@
       <c r="J49" s="7">
         <v>9.4199999999999996E-8</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>1.17</v>
       </c>
       <c r="L49">
         <v>2.8495915709183979E-2</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="19">
         <v>1.23</v>
       </c>
       <c r="O49">
@@ -10814,7 +10803,7 @@
       <c r="E50" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="19">
         <v>0.37</v>
       </c>
       <c r="H50" t="s">
@@ -10823,16 +10812,16 @@
       <c r="J50" s="7">
         <v>5.4700000000000001E-7</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>0.85</v>
       </c>
       <c r="L50">
         <v>3.2865528531369495E-2</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>0.8</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="19">
         <v>0.91</v>
       </c>
       <c r="O50">
@@ -10855,7 +10844,7 @@
       <c r="E51" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <v>0.19</v>
       </c>
       <c r="H51" t="s">
@@ -10864,16 +10853,16 @@
       <c r="J51" s="7">
         <v>2.4E-10</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>0.78</v>
       </c>
       <c r="L51">
         <v>3.9324153017157734E-2</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <v>0.72</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="19">
         <v>0.84</v>
       </c>
       <c r="O51">
@@ -10896,7 +10885,7 @@
       <c r="E52" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="19">
         <v>0.2</v>
       </c>
       <c r="H52" t="s">
@@ -10905,16 +10894,16 @@
       <c r="J52" s="7">
         <v>2.7E-10</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>0.78</v>
       </c>
       <c r="L52">
         <v>3.9324153017157734E-2</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="19">
         <v>0.72</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="19">
         <v>0.84</v>
       </c>
       <c r="O52">
@@ -10937,7 +10926,7 @@
       <c r="E53" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="19">
         <v>0.21</v>
       </c>
       <c r="H53" t="s">
@@ -10946,16 +10935,16 @@
       <c r="J53" s="7">
         <v>8.7399999999999992E-9</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>0.8</v>
       </c>
       <c r="L53">
         <v>3.4913056815611541E-2</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="19">
         <v>0.75</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="19">
         <v>0.86</v>
       </c>
       <c r="O53">
@@ -10976,27 +10965,27 @@
         <v>78964083</v>
       </c>
       <c r="E54" t="s">
-        <v>434</v>
-      </c>
-      <c r="G54" s="20">
+        <v>432</v>
+      </c>
+      <c r="G54" s="19">
         <v>0.44</v>
       </c>
       <c r="H54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J54" s="7">
         <v>1.6400000000000001E-8</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>0.84</v>
       </c>
       <c r="L54">
         <v>3.0405233996203658E-2</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="19">
         <v>0.79</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="19">
         <v>0.89</v>
       </c>
       <c r="O54">
@@ -11019,25 +11008,25 @@
       <c r="E55" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="19">
         <v>0.41</v>
       </c>
       <c r="H55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J55" s="7">
         <v>1.2599999999999999E-7</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>0.85</v>
       </c>
       <c r="L55">
         <v>3.0046692769485569E-2</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>0.8</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="19">
         <v>0.9</v>
       </c>
       <c r="O55">
@@ -11060,7 +11049,7 @@
       <c r="E56" t="s">
         <v>224</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="19">
         <v>0.41</v>
       </c>
       <c r="H56" t="s">
@@ -11069,16 +11058,16 @@
       <c r="J56" s="7">
         <v>2.1299999999999999E-7</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>0.85</v>
       </c>
       <c r="L56">
         <v>3.0046692769485569E-2</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>0.8</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="19">
         <v>0.9</v>
       </c>
       <c r="O56">
@@ -11101,7 +11090,7 @@
       <c r="E57" t="s">
         <v>213</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="19">
         <v>0.28000000000000003</v>
       </c>
       <c r="H57" t="s">
@@ -11116,10 +11105,10 @@
       <c r="L57">
         <v>3.275029761433846E-2</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>0.73</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="19">
         <v>0.83</v>
       </c>
       <c r="O57">
@@ -11142,7 +11131,7 @@
       <c r="E58" t="s">
         <v>224</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="19">
         <v>0.16</v>
       </c>
       <c r="H58" t="s">
@@ -11157,10 +11146,10 @@
       <c r="L58">
         <v>3.8895049399049364E-2</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>0.85</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="19">
         <v>0.99</v>
       </c>
       <c r="O58">
@@ -11183,7 +11172,7 @@
       <c r="E59" t="s">
         <v>227</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="19">
         <v>0.48</v>
       </c>
       <c r="H59" t="s">
@@ -11198,10 +11187,10 @@
       <c r="L59">
         <v>2.9354420863466148E-2</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <v>0.82</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="19">
         <v>0.92</v>
       </c>
       <c r="O59">
@@ -11224,11 +11213,11 @@
       <c r="E60" t="s">
         <v>213</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="19">
         <v>0.2</v>
       </c>
       <c r="H60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J60" s="7">
         <v>1.9400000000000001E-6</v>
@@ -11239,10 +11228,10 @@
       <c r="L60">
         <v>3.694667037715714E-2</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="19">
         <v>0.77</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="19">
         <v>0.89</v>
       </c>
       <c r="O60">
@@ -11254,7 +11243,7 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -11265,11 +11254,11 @@
       <c r="E61" t="s">
         <v>213</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="19">
         <v>0.28000000000000003</v>
       </c>
       <c r="H61" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J61" s="7">
         <v>9.1400000000000002E-12</v>
@@ -11280,10 +11269,10 @@
       <c r="L61">
         <v>3.2334618785495872E-2</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>0.74</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="19">
         <v>0.84</v>
       </c>
       <c r="O61">
@@ -11306,7 +11295,7 @@
       <c r="E62" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="19">
         <v>0.31</v>
       </c>
       <c r="H62" t="s">
@@ -11315,16 +11304,16 @@
       <c r="J62" s="7">
         <v>5.0600000000000001E-10</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="19">
         <v>1.21</v>
       </c>
       <c r="L62">
         <v>2.9548932531918828E-2</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="19">
         <v>1.28</v>
       </c>
       <c r="O62">
@@ -11347,7 +11336,7 @@
       <c r="E63" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="19">
         <v>0.31</v>
       </c>
       <c r="H63" t="s">
@@ -11356,16 +11345,16 @@
       <c r="J63" s="7">
         <v>5.9000000000000003E-10</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>1.21</v>
       </c>
       <c r="L63">
         <v>2.9548932531918828E-2</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="19">
         <v>1.28</v>
       </c>
       <c r="O63">
@@ -11388,7 +11377,7 @@
       <c r="E64" t="s">
         <v>213</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="19">
         <v>0.24</v>
       </c>
       <c r="H64" t="s">
@@ -11397,16 +11386,16 @@
       <c r="J64" s="7">
         <v>3.9300000000000003E-9</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="19">
         <v>1.21</v>
       </c>
       <c r="L64">
         <v>3.3504082158440578E-2</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="19">
         <v>1.3</v>
       </c>
       <c r="O64">
@@ -11429,7 +11418,7 @@
       <c r="E65" t="s">
         <v>213</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="19">
         <v>0.22</v>
       </c>
       <c r="H65" t="s">
@@ -11438,16 +11427,16 @@
       <c r="J65" s="7">
         <v>1.6999999999999999E-7</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="19">
         <v>1.19</v>
       </c>
       <c r="L65">
         <v>3.4351246210779868E-2</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="19">
         <v>1.27</v>
       </c>
       <c r="O65">
@@ -11470,7 +11459,7 @@
       <c r="E66" t="s">
         <v>224</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="19">
         <v>0.42</v>
       </c>
       <c r="H66" t="s">
@@ -11479,16 +11468,16 @@
       <c r="J66" s="7">
         <v>9.3299999999999998E-9</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="19">
         <v>0.85</v>
       </c>
       <c r="L66">
         <v>3.0046692769485569E-2</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19">
         <v>0.8</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="19">
         <v>0.9</v>
       </c>
       <c r="O66">
@@ -11511,7 +11500,7 @@
       <c r="E67" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="19">
         <v>0.37</v>
       </c>
       <c r="H67" t="s">
@@ -11520,16 +11509,16 @@
       <c r="J67" s="7">
         <v>9.9900000000000001E-8</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="19">
         <v>0.86</v>
       </c>
       <c r="L67">
         <v>1.20448483107972</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="19">
         <v>0.81</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="19">
         <v>91</v>
       </c>
       <c r="O67">
@@ -11552,7 +11541,7 @@
       <c r="E68" t="s">
         <v>224</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="19">
         <v>0.38</v>
       </c>
       <c r="H68" t="s">
@@ -11561,16 +11550,16 @@
       <c r="J68" s="7">
         <v>3.2199999999999997E-8</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K68" s="19">
         <v>0.86</v>
       </c>
       <c r="L68">
         <v>2.9696518327655928E-2</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="19">
         <v>0.81</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="19">
         <v>0.91</v>
       </c>
       <c r="O68">
@@ -11593,7 +11582,7 @@
       <c r="E69" t="s">
         <v>224</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="19">
         <v>0.39</v>
       </c>
       <c r="H69" t="s">
@@ -11602,16 +11591,16 @@
       <c r="J69" s="7">
         <v>5.9400000000000003E-8</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="19">
         <v>0.86</v>
       </c>
       <c r="L69">
         <v>2.9696518327655928E-2</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="19">
         <v>0.81</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="19">
         <v>0.91</v>
       </c>
       <c r="O69">
@@ -11634,7 +11623,7 @@
       <c r="E70" t="s">
         <v>214</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="19">
         <v>0.39</v>
       </c>
       <c r="H70" t="s">
@@ -11643,16 +11632,16 @@
       <c r="J70" s="7">
         <v>2.5099999999999998E-4</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="19">
         <v>0.92</v>
       </c>
       <c r="L70">
         <v>2.7755831594081397E-2</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="19">
         <v>0.87</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="19">
         <v>0.97</v>
       </c>
       <c r="O70">
@@ -11675,7 +11664,7 @@
       <c r="E71" t="s">
         <v>227</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="19">
         <v>0.32</v>
       </c>
       <c r="H71" t="s">
@@ -11684,16 +11673,16 @@
       <c r="J71" s="7">
         <v>4.8599999999999998E-8</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K71" s="19">
         <v>1.1299999999999999</v>
       </c>
       <c r="L71">
         <v>3.1367783452763989E-2</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="19">
         <v>1.07</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="19">
         <v>1.21</v>
       </c>
       <c r="O71">
@@ -11716,7 +11705,7 @@
       <c r="E72" t="s">
         <v>227</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="19">
         <v>0.33</v>
       </c>
       <c r="H72" t="s">
@@ -11725,16 +11714,16 @@
       <c r="J72" s="7">
         <v>3.2500000000000001E-7</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K72" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="L72">
         <v>3.1367783452763989E-2</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="19">
         <v>1.07</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N72" s="19">
         <v>1.21</v>
       </c>
       <c r="O72">
@@ -11757,7 +11746,7 @@
       <c r="E73" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="19">
         <v>0.41</v>
       </c>
       <c r="H73" t="s">
@@ -11766,16 +11755,16 @@
       <c r="J73" s="7">
         <v>5.49E-6</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K73" s="19">
         <v>1.1299999999999999</v>
       </c>
       <c r="L73">
         <v>2.9511326275373E-2</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="19">
         <v>1.06</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="19">
         <v>1.19</v>
       </c>
       <c r="O73">
@@ -11798,7 +11787,7 @@
       <c r="E74" t="s">
         <v>213</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="19">
         <v>0.25</v>
       </c>
       <c r="H74" t="s">
@@ -11807,16 +11796,16 @@
       <c r="J74" s="7">
         <v>7.6199999999999998E-4</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="19">
         <v>1.0900000000000001</v>
       </c>
       <c r="L74">
         <v>3.2810555566860591E-2</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="19">
         <v>1.02</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N74" s="19">
         <v>1.1599999999999999</v>
       </c>
       <c r="O74">
@@ -11839,7 +11828,7 @@
       <c r="E75" t="s">
         <v>227</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G75" s="19">
         <v>0.03</v>
       </c>
       <c r="H75" t="s">
@@ -11848,16 +11837,16 @@
       <c r="J75" s="7">
         <v>3.32E-8</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K75" s="19">
         <v>1.45</v>
       </c>
       <c r="L75">
         <v>7.1865282006448233E-2</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>1.26</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="19">
         <v>1.67</v>
       </c>
       <c r="O75">
@@ -11880,7 +11869,7 @@
       <c r="E76" t="s">
         <v>214</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="19">
         <v>0.03</v>
       </c>
       <c r="H76" t="s">
@@ -11889,16 +11878,16 @@
       <c r="J76" s="7">
         <v>2.16E-7</v>
       </c>
-      <c r="K76" s="20">
+      <c r="K76" s="19">
         <v>1.44</v>
       </c>
       <c r="L76">
         <v>7.5947001737683234E-2</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="19">
         <v>1.24</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="19">
         <v>1.67</v>
       </c>
       <c r="O76">
@@ -11921,7 +11910,7 @@
       <c r="E77" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G77" s="19">
         <v>0.03</v>
       </c>
       <c r="H77" t="s">
@@ -11930,16 +11919,16 @@
       <c r="J77" s="7">
         <v>2.9299999999999999E-7</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K77" s="19">
         <v>1.43</v>
       </c>
       <c r="L77">
         <v>7.0824422601601877E-2</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="19">
         <v>1.25</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="19">
         <v>1.65</v>
       </c>
       <c r="O77">
@@ -11962,7 +11951,7 @@
       <c r="E78" t="s">
         <v>213</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="19">
         <v>0.03</v>
       </c>
       <c r="H78" t="s">
@@ -11971,16 +11960,16 @@
       <c r="J78" s="7">
         <v>4.6199999999999998E-7</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="19">
         <v>1.42</v>
       </c>
       <c r="L78">
         <v>7.1828021794475713E-2</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="19">
         <v>1.23</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="19">
         <v>1.63</v>
       </c>
       <c r="O78">
@@ -12003,7 +11992,7 @@
       <c r="E79" t="s">
         <v>224</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G79" s="19">
         <v>0.03</v>
       </c>
       <c r="H79" t="s">
@@ -12012,16 +12001,16 @@
       <c r="J79" s="7">
         <v>2.9299999999999999E-7</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="19">
         <v>1.43</v>
       </c>
       <c r="L79">
         <v>7.0824422601601877E-2</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="19">
         <v>1.25</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="19">
         <v>1.65</v>
       </c>
       <c r="O79">
@@ -12033,7 +12022,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -12044,7 +12033,7 @@
       <c r="E80" t="s">
         <v>227</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="19">
         <v>0.03</v>
       </c>
       <c r="H80" t="s">
@@ -12053,16 +12042,16 @@
       <c r="J80" s="7">
         <v>6.1699999999999998E-7</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="19">
         <v>1.43</v>
       </c>
       <c r="L80">
         <v>7.4939060849021188E-2</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="19">
         <v>1.23</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="19">
         <v>1.65</v>
       </c>
       <c r="O80">
@@ -12070,37 +12059,37 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>364</v>
+      <c r="A82" s="10" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D83" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E83" t="s">
+        <v>436</v>
+      </c>
+      <c r="F83" t="s">
+        <v>430</v>
+      </c>
+      <c r="G83" t="s">
+        <v>437</v>
+      </c>
+      <c r="H83" t="s">
         <v>438</v>
       </c>
-      <c r="F83" t="s">
-        <v>432</v>
-      </c>
-      <c r="G83" t="s">
-        <v>439</v>
-      </c>
-      <c r="H83" t="s">
-        <v>440</v>
-      </c>
       <c r="I83" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J83" t="s">
         <v>194</v>
@@ -12109,30 +12098,30 @@
         <v>5</v>
       </c>
       <c r="L83" t="s">
+        <v>385</v>
+      </c>
+      <c r="M83" t="s">
+        <v>386</v>
+      </c>
+      <c r="N83" t="s">
         <v>387</v>
       </c>
-      <c r="M83" t="s">
-        <v>388</v>
-      </c>
-      <c r="N83" t="s">
-        <v>389</v>
-      </c>
-      <c r="O83" s="16" t="s">
+      <c r="O83" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q83" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -12179,10 +12168,10 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -12224,15 +12213,15 @@
         <v>224</v>
       </c>
       <c r="Q85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -12274,15 +12263,15 @@
         <v>224</v>
       </c>
       <c r="Q86" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B87" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -12329,10 +12318,10 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -12374,15 +12363,15 @@
         <v>214</v>
       </c>
       <c r="Q88" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B89" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -12424,41 +12413,41 @@
         <v>214</v>
       </c>
       <c r="Q89" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>367</v>
+      <c r="A91" s="10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" t="s">
+        <v>429</v>
+      </c>
+      <c r="E92" t="s">
         <v>379</v>
       </c>
-      <c r="D92" t="s">
-        <v>431</v>
-      </c>
-      <c r="E92" t="s">
-        <v>381</v>
-      </c>
       <c r="F92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H92" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I92" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J92" t="s">
         <v>194</v>
@@ -12467,24 +12456,24 @@
         <v>5</v>
       </c>
       <c r="L92" t="s">
+        <v>385</v>
+      </c>
+      <c r="M92" t="s">
+        <v>386</v>
+      </c>
+      <c r="N92" t="s">
         <v>387</v>
       </c>
-      <c r="M92" t="s">
-        <v>388</v>
-      </c>
-      <c r="N92" t="s">
-        <v>389</v>
-      </c>
-      <c r="O92" s="16" t="s">
+      <c r="O92" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -12523,15 +12512,15 @@
         <v>-0.3285040669720361</v>
       </c>
       <c r="P93" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B94" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -12570,64 +12559,64 @@
         <v>-0.38566248081198462</v>
       </c>
       <c r="P94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C95" s="23">
+      <c r="A95" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" s="22">
         <v>7</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="22">
         <v>50323174</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F95" s="22">
         <v>0.2001</v>
       </c>
-      <c r="G95" s="23">
+      <c r="G95" s="22">
         <v>0.25559999999999999</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H95" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="24">
+      <c r="I95" s="22"/>
+      <c r="J95" s="23">
         <v>4.1999999999999999E-8</v>
       </c>
-      <c r="K95" s="23">
+      <c r="K95" s="22">
         <v>0.7</v>
       </c>
       <c r="L95">
         <v>6.5962752115742429E-2</v>
       </c>
-      <c r="M95" s="23">
+      <c r="M95" s="22">
         <v>0.61</v>
       </c>
-      <c r="N95" s="23">
+      <c r="N95" s="22">
         <v>0.79</v>
       </c>
       <c r="O95">
         <v>-0.35667494393873245</v>
       </c>
-      <c r="P95" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="S95" s="23"/>
+      <c r="P95" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="S95" s="22"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -12666,15 +12655,15 @@
         <v>-0.2744368457017603</v>
       </c>
       <c r="P96" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -12713,93 +12702,93 @@
         <v>-0.38566248081198462</v>
       </c>
       <c r="P97" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="C98" s="23">
+      <c r="A98" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C98" s="22">
         <v>7</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="22">
         <v>50305863</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F98" s="22">
         <v>0.25290000000000001</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="22">
         <v>0.31090000000000001</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H98" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="24">
+      <c r="I98" s="22"/>
+      <c r="J98" s="23">
         <v>6.0199999999999996E-8</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="22">
         <v>0.72</v>
       </c>
       <c r="L98">
         <v>6.0093385538971159E-2</v>
       </c>
-      <c r="M98" s="23">
+      <c r="M98" s="22">
         <v>0.64</v>
       </c>
-      <c r="N98" s="23">
+      <c r="N98" s="22">
         <v>0.81</v>
       </c>
       <c r="O98">
         <v>-0.3285040669720361</v>
       </c>
-      <c r="P98" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="S98" s="23"/>
+      <c r="P98" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="S98" s="22"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>370</v>
+      <c r="A100" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="B100" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>456</v>
+      </c>
+      <c r="B101" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" t="s">
+        <v>377</v>
+      </c>
+      <c r="D101" t="s">
+        <v>429</v>
+      </c>
+      <c r="E101" t="s">
+        <v>457</v>
+      </c>
+      <c r="F101" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" t="s">
+        <v>381</v>
+      </c>
+      <c r="H101" t="s">
         <v>458</v>
       </c>
-      <c r="B101" t="s">
-        <v>378</v>
-      </c>
-      <c r="C101" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" t="s">
-        <v>431</v>
-      </c>
-      <c r="E101" t="s">
-        <v>459</v>
-      </c>
-      <c r="F101" t="s">
-        <v>421</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>383</v>
-      </c>
-      <c r="H101" t="s">
-        <v>460</v>
-      </c>
-      <c r="I101" t="s">
-        <v>385</v>
       </c>
       <c r="J101" t="s">
         <v>194</v>
@@ -12808,32 +12797,32 @@
         <v>5</v>
       </c>
       <c r="L101" t="s">
+        <v>385</v>
+      </c>
+      <c r="M101" t="s">
+        <v>386</v>
+      </c>
+      <c r="N101" t="s">
         <v>387</v>
       </c>
-      <c r="M101" t="s">
-        <v>388</v>
-      </c>
-      <c r="N101" t="s">
-        <v>389</v>
-      </c>
       <c r="O101" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="C102" s="26">
+      <c r="C102" s="25">
         <v>6</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D102" s="25">
         <v>31657087</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="25" t="s">
         <v>214</v>
       </c>
       <c r="F102">
@@ -12842,10 +12831,10 @@
       <c r="G102">
         <v>9.0703199999999998E-2</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="J102" s="27">
+      <c r="J102" s="26">
         <v>5.7729800000000005E-76</v>
       </c>
       <c r="K102">
@@ -12857,22 +12846,22 @@
       <c r="O102">
         <v>0.73331500000000005</v>
       </c>
-      <c r="R102" s="26"/>
+      <c r="R102" s="25"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>464</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C103" s="26">
+        <v>462</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C103" s="25">
         <v>6</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="25">
         <v>32164195</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="25" t="s">
         <v>227</v>
       </c>
       <c r="F103">
@@ -12881,10 +12870,10 @@
       <c r="G103">
         <v>9.4343200000000002E-2</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="J103" s="27">
+      <c r="J103" s="26">
         <v>1.3406000000000001E-72</v>
       </c>
       <c r="K103">
@@ -12896,22 +12885,22 @@
       <c r="O103">
         <v>0.71003799999999995</v>
       </c>
-      <c r="R103" s="26"/>
+      <c r="R103" s="25"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>466</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="C104" s="26">
+        <v>464</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C104" s="25">
         <v>6</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="25">
         <v>32711549</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="25" t="s">
         <v>213</v>
       </c>
       <c r="F104">
@@ -12920,10 +12909,10 @@
       <c r="G104">
         <v>9.9791000000000005E-2</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J104" s="27">
+      <c r="J104" s="26">
         <v>1.15478E-69</v>
       </c>
       <c r="K104">
@@ -12935,22 +12924,22 @@
       <c r="O104">
         <v>0.68493800000000005</v>
       </c>
-      <c r="R104" s="26"/>
+      <c r="R104" s="25"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>468</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="C105" s="26">
+        <v>466</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="25">
         <v>7</v>
       </c>
-      <c r="D105" s="26">
+      <c r="D105" s="25">
         <v>128938247</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="25" t="s">
         <v>224</v>
       </c>
       <c r="F105">
@@ -12959,10 +12948,10 @@
       <c r="G105">
         <v>0.47728500000000001</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="J105" s="27">
+      <c r="J105" s="26">
         <v>2.1642100000000001E-18</v>
       </c>
       <c r="K105">
@@ -12974,22 +12963,22 @@
       <c r="O105">
         <v>-0.24807000000000001</v>
       </c>
-      <c r="R105" s="26"/>
+      <c r="R105" s="25"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>470</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="C106" s="26">
+        <v>468</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106" s="25">
         <v>6</v>
       </c>
-      <c r="D106" s="26">
+      <c r="D106" s="25">
         <v>25874195</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="25" t="s">
         <v>227</v>
       </c>
       <c r="F106">
@@ -12998,10 +12987,10 @@
       <c r="G106">
         <v>4.6709500000000001E-2</v>
       </c>
-      <c r="H106" s="26" t="s">
+      <c r="H106" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J106" s="27">
+      <c r="J106" s="26">
         <v>8.45474E-12</v>
       </c>
       <c r="K106">
@@ -13013,22 +13002,22 @@
       <c r="O106">
         <v>0.40653</v>
       </c>
-      <c r="R106" s="26"/>
+      <c r="R106" s="25"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>472</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="C107" s="26">
+        <v>470</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107" s="25">
         <v>2</v>
       </c>
-      <c r="D107" s="26">
+      <c r="D107" s="25">
         <v>191108308</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>227</v>
       </c>
       <c r="F107">
@@ -13037,10 +13026,10 @@
       <c r="G107">
         <v>0.76469900000000002</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H107" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J107" s="27">
+      <c r="J107" s="26">
         <v>2.5605899999999998E-10</v>
       </c>
       <c r="K107">
@@ -13052,22 +13041,22 @@
       <c r="O107">
         <v>-0.204598</v>
       </c>
-      <c r="R107" s="26"/>
+      <c r="R107" s="25"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>474</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="C108" s="26">
+        <v>472</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C108" s="25">
         <v>7</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D108" s="25">
         <v>74606017</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>227</v>
       </c>
       <c r="F108">
@@ -13076,10 +13065,10 @@
       <c r="G108">
         <v>2.8553100000000001E-2</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J108" s="27">
+      <c r="J108" s="26">
         <v>1.98962E-9</v>
       </c>
       <c r="K108">
@@ -13091,22 +13080,22 @@
       <c r="O108">
         <v>0.45050400000000002</v>
       </c>
-      <c r="R108" s="26"/>
+      <c r="R108" s="25"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>476</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="C109" s="26">
+        <v>474</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" s="25">
         <v>7</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D109" s="25">
         <v>75546817</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="25" t="s">
         <v>227</v>
       </c>
       <c r="F109">
@@ -13115,10 +13104,10 @@
       <c r="G109">
         <v>2.4334399999999999E-2</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="J109" s="27">
+      <c r="J109" s="26">
         <v>1.44424E-8</v>
       </c>
       <c r="K109">
@@ -13130,35 +13119,35 @@
       <c r="O109">
         <v>0.45573999999999998</v>
       </c>
-      <c r="R109" s="26"/>
+      <c r="R109" s="25"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>373</v>
+      <c r="A111" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E111" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G111" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I111" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J111" t="s">
         <v>194</v>
@@ -13167,24 +13156,24 @@
         <v>5</v>
       </c>
       <c r="L111" t="s">
+        <v>385</v>
+      </c>
+      <c r="M111" t="s">
+        <v>386</v>
+      </c>
+      <c r="N111" t="s">
         <v>387</v>
       </c>
-      <c r="M111" t="s">
-        <v>388</v>
-      </c>
-      <c r="N111" t="s">
-        <v>389</v>
-      </c>
       <c r="O111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="28" t="s">
-        <v>478</v>
+      <c r="A112" s="27" t="s">
+        <v>476</v>
       </c>
       <c r="B112" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C112">
         <v>6</v>
@@ -13195,14 +13184,14 @@
       <c r="E112" t="s">
         <v>214</v>
       </c>
-      <c r="G112" s="29">
+      <c r="G112" s="28">
         <v>0.2</v>
       </c>
       <c r="H112" t="s">
         <v>224</v>
       </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="30">
+      <c r="I112" s="28"/>
+      <c r="J112" s="29">
         <v>6.0999999999999996E-10</v>
       </c>
       <c r="L112">
@@ -13230,35 +13219,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9572203A-C66E-3441-8443-B651A091BC52}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" t="s">
         <v>481</v>
       </c>
-      <c r="C1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>482</v>
-      </c>
-      <c r="E1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -13270,7 +13257,7 @@
         <v>8.8668421999999997E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>0.33</v>
@@ -13278,7 +13265,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
         <v>227</v>
@@ -13298,7 +13285,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>227</v>
@@ -13318,7 +13305,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
@@ -13338,7 +13325,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>227</v>
@@ -13358,7 +13345,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>213</v>
@@ -13378,7 +13365,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
@@ -13398,7 +13385,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>214</v>
@@ -13418,7 +13405,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>224</v>
@@ -13438,7 +13425,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>224</v>
@@ -13458,7 +13445,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>227</v>
@@ -13478,7 +13465,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
@@ -13490,7 +13477,7 @@
         <v>6.4110823999999997E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F13">
         <v>0.23</v>
@@ -13498,7 +13485,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>214</v>
@@ -13518,7 +13505,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>214</v>
@@ -13538,7 +13525,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
         <v>227</v>
@@ -13558,7 +13545,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>227</v>
@@ -13578,7 +13565,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>214</v>
@@ -13598,7 +13585,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
         <v>214</v>
@@ -13618,7 +13605,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>227</v>
@@ -13638,7 +13625,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
         <v>213</v>
@@ -13658,7 +13645,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
         <v>224</v>
@@ -13678,7 +13665,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
         <v>227</v>
@@ -14041,7 +14028,7 @@
         <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C41">
         <v>-0.174353387</v>
@@ -14050,7 +14037,7 @@
         <v>2.9499780999999999E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F41">
         <v>0.44</v>
@@ -14058,10 +14045,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C42">
         <v>-0.16251892900000001</v>
@@ -14081,7 +14068,7 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C43">
         <v>-0.16251892900000001</v>
@@ -14161,7 +14148,7 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C47">
         <v>-0.186329578</v>
@@ -14178,10 +14165,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C48">
         <v>-0.23572233400000001</v>
@@ -14310,7 +14297,7 @@
         <v>2.378409386</v>
       </c>
       <c r="E54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F54">
         <v>0.37</v>
@@ -14558,7 +14545,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
         <v>214</v>
@@ -14578,7 +14565,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s">
         <v>227</v>
@@ -14598,7 +14585,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
         <v>213</v>
@@ -14618,7 +14605,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s">
         <v>224</v>
@@ -14638,7 +14625,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s">
         <v>227</v>
@@ -14658,7 +14645,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s">
         <v>214</v>
@@ -14678,7 +14665,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s">
         <v>214</v>
@@ -14698,7 +14685,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s">
         <v>214</v>
@@ -14718,7 +14705,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s">
         <v>213</v>
@@ -14745,9 +14732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FDD4BD-A498-8945-9E84-DB28249B2FB6}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14756,27 +14741,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" t="s">
         <v>481</v>
       </c>
-      <c r="C1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>482</v>
-      </c>
-      <c r="E1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -14796,7 +14781,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>224</v>
@@ -14816,7 +14801,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>227</v>
@@ -14836,7 +14821,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
@@ -14856,7 +14841,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>227</v>
@@ -14876,7 +14861,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>224</v>
@@ -14896,7 +14881,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
@@ -14916,7 +14901,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>227</v>
@@ -14936,7 +14921,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>214</v>
@@ -14963,191 +14948,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7019E946-E170-E744-9178-849F157121EB}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="B3" s="31">
+        <v>12</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1.179</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.456E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B4" s="31">
+        <v>12</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="E4" s="32">
+        <v>3.3210000000000001E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B5" s="31">
         <v>12</v>
       </c>
-      <c r="C3" s="32">
-        <v>1.179</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.27129999999999999</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1.456E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="C5" s="31">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.37E-13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B6" s="31">
         <v>12</v>
       </c>
-      <c r="C4" s="32">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="E4" s="33">
-        <v>3.3210000000000001E-16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="C6" s="31">
+        <v>1.149</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.121</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1.2419999999999999E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32">
-        <v>12</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1.37E-13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="32">
-        <v>12</v>
-      </c>
-      <c r="C6" s="32">
-        <v>1.149</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0.121</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1.2419999999999999E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="31">
+        <v>128.5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32">
+        <v>9.279E-23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="31">
+        <v>141</v>
+      </c>
+      <c r="C10" s="31">
+        <v>11</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1.0150000000000001E-24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B9" s="32">
-        <v>128.5</v>
-      </c>
-      <c r="C9" s="32">
-        <v>10</v>
-      </c>
-      <c r="D9" s="33">
-        <v>9.279E-23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="32">
-        <v>141</v>
-      </c>
-      <c r="C10" s="32">
-        <v>11</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1.0150000000000001E-24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>505</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.34799999999999998</v>
       </c>
     </row>
